--- a/biology/Médecine/Mikhail_Nikiforovitch_Nikiforov/Mikhail_Nikiforovitch_Nikiforov.xlsx
+++ b/biology/Médecine/Mikhail_Nikiforovitch_Nikiforov/Mikhail_Nikiforovitch_Nikiforov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikhail Nikiforovitch Nikiforov (en russe : Михаил Никифорович Никифоров) est un médecin russe, né le 4 novembre 1858 à Moscou et mort dans la même ville le 23 juin 1915.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de la faculté de médecine de l'Université de Moscou en 1883[1], Mikhail  Nikiforov devient, en 1894, professeur d'anatomie pathologique et, en 1897, directeur de l'Institut d'anatomie pathologique de l'Université de Moscou[2],[3].
-Il est l'auteur d'un atlas d'anatomie pathologique et a fondé une importante école dans cette spécialité[4].
-Les principaux travaux de Nikoforov portent sur l'amélioration des techniques histologiques et bactériologiques, l'histogenèse lors de la granulation, la fièvre récurrente et la morphologie du chorioépithéliome[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de la faculté de médecine de l'Université de Moscou en 1883, Mikhail  Nikiforov devient, en 1894, professeur d'anatomie pathologique et, en 1897, directeur de l'Institut d'anatomie pathologique de l'Université de Moscou,.
+Il est l'auteur d'un atlas d'anatomie pathologique et a fondé une importante école dans cette spécialité.
+Les principaux travaux de Nikoforov portent sur l'amélioration des techniques histologiques et bactériologiques, l'histogenèse lors de la granulation, la fièvre récurrente et la morphologie du chorioépithéliome,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Technique microscopique (1885)
 Sur les changements pathologiques de la rate lors de fièvre récurrente (mémoire, 1887)
